--- a/EntrySurvey_JaydenUpdated.xlsx
+++ b/EntrySurvey_JaydenUpdated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamn\Documents\Project\Rebound Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D268233C-9A10-43A0-91B4-5F24EF824A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92688E31-092F-480A-ABDB-32F88F7BA864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B19B9D2F-956D-BE40-A123-87133FD4CF0A}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Project REBOUND Entry Survey_No" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project REBOUND Entry Survey_No'!$X$1:$X$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project REBOUND Entry Survey_No'!$A$1:$AB$94</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="289">
   <si>
     <t>Progress</t>
   </si>
@@ -53,15 +53,6 @@
   </si>
   <si>
     <t>Recipient Last Name</t>
-  </si>
-  <si>
-    <t>Recipient First Name</t>
-  </si>
-  <si>
-    <t>Recipient Email</t>
-  </si>
-  <si>
-    <t>External Data Reference</t>
   </si>
   <si>
     <t>Location Latitude</t>
@@ -929,9 +920,6 @@
   </si>
   <si>
     <t xml:space="preserve">No feedback. but overall very helpful and it reduces stress knowing that they are classes to help students to understand basic concepts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -1796,24 +1784,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4453E47D-C568-EE4F-A623-6435D780369E}">
-  <dimension ref="A1:AE94"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="44.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="46" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.5" customWidth="1"/>
-    <col min="27" max="27" width="60.08203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.58203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1856,7 +1836,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1865,13 +1845,13 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U1" t="s">
@@ -1880,7 +1860,7 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
@@ -1898,17 +1878,8 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45712.412314814814</v>
       </c>
@@ -1919,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>75</v>
@@ -1934,22 +1905,22 @@
         <v>45719.412534722222</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2">
+        <v>29</v>
+      </c>
+      <c r="K2">
         <v>-33.871499999999997</v>
       </c>
-      <c r="O2">
+      <c r="L2">
         <v>151.20060000000001</v>
       </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45714.877303240741</v>
       </c>
@@ -1960,7 +1931,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -1975,25 +1946,25 @@
         <v>45721.891377314816</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3">
+        <v>33</v>
+      </c>
+      <c r="K3">
         <v>-34.069800000000001</v>
       </c>
-      <c r="O3">
+      <c r="L3">
         <v>150.8409</v>
       </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
       </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45715.021354166667</v>
       </c>
@@ -2004,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2019,25 +1990,25 @@
         <v>45722.038321759261</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4">
+        <v>36</v>
+      </c>
+      <c r="K4">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O4">
+      <c r="L4">
         <v>151.12889999999999</v>
       </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45726.253252314818</v>
       </c>
@@ -2048,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -2063,61 +2034,61 @@
         <v>45726.254479166666</v>
       </c>
       <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>-33.867199999999997</v>
+      </c>
+      <c r="L5">
+        <v>151.19970000000001</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5">
+        <v>48571695</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
         <v>42</v>
       </c>
-      <c r="N5">
-        <v>-33.867199999999997</v>
-      </c>
-      <c r="O5">
-        <v>151.19970000000001</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5">
-        <v>48571695</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" t="s">
         <v>44</v>
       </c>
-      <c r="V5" t="s">
-        <v>44</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>46</v>
-      </c>
       <c r="AB5" t="s">
         <v>46</v>
       </c>
-      <c r="AC5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45728.919074074074</v>
       </c>
@@ -2128,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2143,61 +2114,61 @@
         <v>45728.923090277778</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6">
+        <v>48</v>
+      </c>
+      <c r="K6">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O6">
+      <c r="L6">
         <v>151.08109999999999</v>
       </c>
-      <c r="P6" t="s">
-        <v>33</v>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6">
+        <v>490183898</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6">
-        <v>490183898</v>
-      </c>
-      <c r="T6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" t="s">
         <v>43</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s">
         <v>49</v>
       </c>
-      <c r="V6" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>46</v>
-      </c>
       <c r="AA6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45728.989606481482</v>
       </c>
@@ -2208,7 +2179,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -2223,55 +2194,55 @@
         <v>45728.990763888891</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7">
+        <v>51</v>
+      </c>
+      <c r="K7">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O7">
+      <c r="L7">
         <v>151.08109999999999</v>
       </c>
-      <c r="P7" t="s">
-        <v>33</v>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7">
+        <v>49112392</v>
       </c>
       <c r="Q7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7">
-        <v>49112392</v>
-      </c>
-      <c r="T7" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="S7" t="s">
+        <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W7" t="s">
+        <v>53</v>
       </c>
       <c r="X7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="304" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="304" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45728.989953703705</v>
       </c>
@@ -2282,10 +2253,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>292</v>
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
       </c>
       <c r="F8">
         <v>385</v>
@@ -2297,61 +2268,61 @@
         <v>45728.994421296295</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8">
+        <v>54</v>
+      </c>
+      <c r="K8">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O8">
+      <c r="L8">
         <v>151.08109999999999</v>
       </c>
-      <c r="P8" t="s">
-        <v>33</v>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8">
+        <v>48682403</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8">
-        <v>48682403</v>
-      </c>
-      <c r="T8" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="S8" t="s">
+        <v>41</v>
       </c>
       <c r="U8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W8" t="s">
+        <v>53</v>
       </c>
       <c r="X8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>56</v>
       </c>
       <c r="AA8" t="s">
         <v>56</v>
       </c>
       <c r="AB8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45728.991516203707</v>
       </c>
@@ -2362,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -2377,61 +2348,61 @@
         <v>45728.994467592594</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9">
+        <v>57</v>
+      </c>
+      <c r="K9">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O9">
+      <c r="L9">
         <v>151.08109999999999</v>
       </c>
-      <c r="P9" t="s">
-        <v>33</v>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9">
+        <v>45662126</v>
       </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9">
-        <v>45662126</v>
-      </c>
-      <c r="T9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y9" t="s">
         <v>43</v>
       </c>
-      <c r="U9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V9" t="s">
-        <v>44</v>
-      </c>
-      <c r="X9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>45</v>
-      </c>
       <c r="Z9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB9" t="s">
         <v>46</v>
       </c>
-      <c r="AC9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45729.072708333333</v>
       </c>
@@ -2442,7 +2413,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2457,61 +2428,61 @@
         <v>45729.207025462965</v>
       </c>
       <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10">
+        <v>-33.788400000000003</v>
+      </c>
+      <c r="L10">
+        <v>151.08109999999999</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10">
+        <v>49160044</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA10" t="s">
         <v>64</v>
       </c>
-      <c r="N10">
-        <v>-33.788400000000003</v>
-      </c>
-      <c r="O10">
-        <v>151.08109999999999</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10">
-        <v>49160044</v>
-      </c>
-      <c r="T10" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V10" t="s">
-        <v>44</v>
-      </c>
-      <c r="X10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>46</v>
-      </c>
       <c r="AB10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45729.82104166667</v>
       </c>
@@ -2522,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -2537,61 +2508,61 @@
         <v>45729.82267361111</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11">
+        <v>65</v>
+      </c>
+      <c r="K11">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O11">
+      <c r="L11">
         <v>151.08109999999999</v>
       </c>
-      <c r="P11" t="s">
-        <v>33</v>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11">
+        <v>48798096</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11">
-        <v>48798096</v>
-      </c>
-      <c r="T11" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S11" t="s">
+        <v>41</v>
       </c>
       <c r="U11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W11" t="s">
+        <v>53</v>
       </c>
       <c r="X11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Z11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AA11" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AB11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="256" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="256" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45729.820277777777</v>
       </c>
@@ -2602,7 +2573,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -2617,61 +2588,61 @@
         <v>45729.829780092594</v>
       </c>
       <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12">
+        <v>-33.788400000000003</v>
+      </c>
+      <c r="L12">
+        <v>151.08109999999999</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12">
+        <v>48799254</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N12">
-        <v>-33.788400000000003</v>
-      </c>
-      <c r="O12">
-        <v>151.08109999999999</v>
-      </c>
-      <c r="P12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12">
-        <v>48799254</v>
-      </c>
-      <c r="T12" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" t="s">
-        <v>49</v>
-      </c>
-      <c r="V12" t="s">
-        <v>44</v>
-      </c>
-      <c r="X12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>56</v>
-      </c>
       <c r="AB12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45725.762175925927</v>
       </c>
@@ -2682,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -2697,25 +2668,25 @@
         <v>45732.829861111109</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13">
+        <v>74</v>
+      </c>
+      <c r="K13">
         <v>-33.7346</v>
       </c>
-      <c r="O13">
+      <c r="L13">
         <v>151.2765</v>
       </c>
-      <c r="P13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" t="s">
         <v>34</v>
       </c>
-      <c r="R13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45735.727962962963</v>
       </c>
@@ -2726,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -2741,61 +2712,61 @@
         <v>45735.732418981483</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14">
+        <v>75</v>
+      </c>
+      <c r="K14">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O14">
+      <c r="L14">
         <v>151.08109999999999</v>
       </c>
-      <c r="P14" t="s">
-        <v>33</v>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14">
+        <v>48496839</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R14" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14">
-        <v>48496839</v>
-      </c>
-      <c r="T14" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S14" t="s">
+        <v>41</v>
       </c>
       <c r="U14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="V14" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W14" t="s">
+        <v>53</v>
       </c>
       <c r="X14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z14" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45735.990613425929</v>
       </c>
@@ -2806,7 +2777,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2821,61 +2792,61 @@
         <v>45735.99145833333</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15">
+        <v>78</v>
+      </c>
+      <c r="K15">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O15">
+      <c r="L15">
         <v>151.08109999999999</v>
       </c>
-      <c r="P15" t="s">
-        <v>33</v>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15">
+        <v>49105450</v>
       </c>
       <c r="Q15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15">
-        <v>49105450</v>
-      </c>
-      <c r="T15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" t="s">
+        <v>53</v>
+      </c>
+      <c r="X15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y15" t="s">
         <v>43</v>
       </c>
-      <c r="U15" t="s">
-        <v>49</v>
-      </c>
-      <c r="V15" t="s">
-        <v>44</v>
-      </c>
-      <c r="X15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>45</v>
-      </c>
       <c r="Z15" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45735.989988425928</v>
       </c>
@@ -2886,7 +2857,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2901,61 +2872,61 @@
         <v>45735.991689814815</v>
       </c>
       <c r="I16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16">
+        <v>-33.788400000000003</v>
+      </c>
+      <c r="L16">
+        <v>151.08109999999999</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16">
+        <v>49027344</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16" t="s">
+        <v>83</v>
+      </c>
+      <c r="V16" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" t="s">
+        <v>53</v>
+      </c>
+      <c r="X16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA16" t="s">
         <v>85</v>
       </c>
-      <c r="N16">
-        <v>-33.788400000000003</v>
-      </c>
-      <c r="O16">
-        <v>151.08109999999999</v>
-      </c>
-      <c r="P16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16">
-        <v>49027344</v>
-      </c>
-      <c r="T16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U16" t="s">
-        <v>49</v>
-      </c>
-      <c r="V16" t="s">
-        <v>44</v>
-      </c>
-      <c r="X16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>56</v>
-      </c>
       <c r="AB16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45735.990763888891</v>
       </c>
@@ -2966,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2981,52 +2952,52 @@
         <v>45735.991759259261</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
-      </c>
-      <c r="N17">
+        <v>87</v>
+      </c>
+      <c r="K17">
         <v>-33.828899999999997</v>
       </c>
-      <c r="O17">
+      <c r="L17">
         <v>151.0829</v>
       </c>
-      <c r="P17" t="s">
-        <v>33</v>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17">
+        <v>48770310</v>
       </c>
       <c r="Q17" t="s">
-        <v>34</v>
-      </c>
-      <c r="S17">
-        <v>48770310</v>
-      </c>
-      <c r="T17" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s">
+        <v>41</v>
       </c>
       <c r="U17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V17" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W17" t="s">
+        <v>53</v>
       </c>
       <c r="X17" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y17" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45735.990624999999</v>
       </c>
@@ -3037,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -3052,61 +3023,61 @@
         <v>45735.992071759261</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18">
+        <v>88</v>
+      </c>
+      <c r="K18">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O18">
+      <c r="L18">
         <v>151.08109999999999</v>
       </c>
-      <c r="P18" t="s">
-        <v>33</v>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18">
+        <v>47532823</v>
       </c>
       <c r="Q18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R18" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18">
-        <v>47532823</v>
-      </c>
-      <c r="T18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" t="s">
+        <v>52</v>
+      </c>
+      <c r="V18" t="s">
+        <v>52</v>
+      </c>
+      <c r="W18" t="s">
         <v>43</v>
       </c>
-      <c r="U18" t="s">
-        <v>49</v>
-      </c>
-      <c r="V18" t="s">
-        <v>44</v>
-      </c>
       <c r="X18" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Y18" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Z18" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="AA18" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AB18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45735.99019675926</v>
       </c>
@@ -3117,7 +3088,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -3132,61 +3103,61 @@
         <v>45735.992881944447</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N19">
+        <v>91</v>
+      </c>
+      <c r="K19">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O19">
+      <c r="L19">
         <v>151.08109999999999</v>
       </c>
-      <c r="P19" t="s">
-        <v>33</v>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19">
+        <v>49041800</v>
       </c>
       <c r="Q19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R19" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19">
-        <v>49041800</v>
-      </c>
-      <c r="T19" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="S19" t="s">
+        <v>41</v>
       </c>
       <c r="U19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V19" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W19" t="s">
+        <v>53</v>
       </c>
       <c r="X19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z19" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AA19" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AB19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45735.990787037037</v>
       </c>
@@ -3197,7 +3168,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -3212,61 +3183,61 @@
         <v>45735.994259259256</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
-      </c>
-      <c r="N20">
+        <v>94</v>
+      </c>
+      <c r="K20">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O20">
+      <c r="L20">
         <v>151.08109999999999</v>
       </c>
-      <c r="P20" t="s">
-        <v>33</v>
+      <c r="M20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20">
+        <v>47123427</v>
       </c>
       <c r="Q20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R20" t="s">
-        <v>37</v>
-      </c>
-      <c r="S20">
-        <v>47123427</v>
-      </c>
-      <c r="T20" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="S20" t="s">
+        <v>41</v>
       </c>
       <c r="U20" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="V20" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="W20" t="s">
+        <v>53</v>
       </c>
       <c r="X20" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Y20" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Z20" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="AA20" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AB20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45736.070844907408</v>
       </c>
@@ -3277,7 +3248,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -3292,61 +3263,61 @@
         <v>45736.072233796294</v>
       </c>
       <c r="I21" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21">
+        <v>97</v>
+      </c>
+      <c r="K21">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O21">
+      <c r="L21">
         <v>151.08109999999999</v>
       </c>
-      <c r="P21" t="s">
-        <v>33</v>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21">
+        <v>49027344</v>
       </c>
       <c r="Q21" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R21" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21">
-        <v>49027344</v>
-      </c>
-      <c r="T21" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S21" t="s">
+        <v>41</v>
       </c>
       <c r="U21" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="V21" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="W21" t="s">
+        <v>53</v>
       </c>
       <c r="X21" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="Y21" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="Z21" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="AA21" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="AB21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45736.070810185185</v>
       </c>
@@ -3357,7 +3328,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -3372,61 +3343,61 @@
         <v>45736.072372685187</v>
       </c>
       <c r="I22" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="K22">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O22">
+      <c r="L22">
         <v>151.08109999999999</v>
       </c>
-      <c r="P22" t="s">
-        <v>33</v>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22">
+        <v>49041800</v>
       </c>
       <c r="Q22" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R22" t="s">
-        <v>37</v>
-      </c>
-      <c r="S22">
-        <v>49041800</v>
-      </c>
-      <c r="T22" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S22" t="s">
+        <v>41</v>
       </c>
       <c r="U22" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V22" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W22" t="s">
+        <v>53</v>
       </c>
       <c r="X22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Z22" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="AA22" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AB22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45736.071076388886</v>
       </c>
@@ -3437,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -3452,61 +3423,61 @@
         <v>45736.07372685185</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
-      </c>
-      <c r="N23">
+        <v>103</v>
+      </c>
+      <c r="K23">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O23">
+      <c r="L23">
         <v>151.08109999999999</v>
       </c>
-      <c r="P23" t="s">
-        <v>33</v>
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23">
+        <v>47793783</v>
       </c>
       <c r="Q23" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R23" t="s">
-        <v>37</v>
-      </c>
-      <c r="S23">
-        <v>47793783</v>
-      </c>
-      <c r="T23" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S23" t="s">
+        <v>41</v>
       </c>
       <c r="U23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V23" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="W23" t="s">
+        <v>53</v>
       </c>
       <c r="X23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y23" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="Z23" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="AA23" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="AB23" t="s">
         <v>46</v>
       </c>
-      <c r="AC23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45736.071956018517</v>
       </c>
@@ -3517,7 +3488,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -3532,61 +3503,61 @@
         <v>45736.073865740742</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
-      </c>
-      <c r="N24">
+        <v>106</v>
+      </c>
+      <c r="K24">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O24">
+      <c r="L24">
         <v>151.08109999999999</v>
       </c>
-      <c r="P24" t="s">
-        <v>33</v>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24">
+        <v>48134155</v>
       </c>
       <c r="Q24" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R24" t="s">
-        <v>37</v>
-      </c>
-      <c r="S24">
-        <v>48134155</v>
-      </c>
-      <c r="T24" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S24" t="s">
+        <v>41</v>
       </c>
       <c r="U24" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V24" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W24" t="s">
+        <v>43</v>
       </c>
       <c r="X24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="AA24" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="AB24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45736.808796296296</v>
       </c>
@@ -3597,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -3612,61 +3583,61 @@
         <v>45736.809699074074</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
-      </c>
-      <c r="N25">
+        <v>109</v>
+      </c>
+      <c r="K25">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O25">
+      <c r="L25">
         <v>151.08109999999999</v>
       </c>
-      <c r="P25" t="s">
-        <v>33</v>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25">
+        <v>49075594</v>
       </c>
       <c r="Q25" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R25" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25">
-        <v>49075594</v>
-      </c>
-      <c r="T25" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S25" t="s">
+        <v>41</v>
       </c>
       <c r="U25" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="V25" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W25" t="s">
+        <v>53</v>
       </c>
       <c r="X25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y25" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Z25" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="AA25" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="AB25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45736.808668981481</v>
       </c>
@@ -3677,7 +3648,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -3692,55 +3663,55 @@
         <v>45736.809918981482</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
-      </c>
-      <c r="N26">
+        <v>113</v>
+      </c>
+      <c r="K26">
         <v>-33.883000000000003</v>
       </c>
-      <c r="O26">
+      <c r="L26">
         <v>151.21270000000001</v>
       </c>
-      <c r="P26" t="s">
-        <v>33</v>
+      <c r="M26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26">
+        <v>49225308</v>
       </c>
       <c r="Q26" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R26" t="s">
-        <v>37</v>
-      </c>
-      <c r="S26">
-        <v>49225308</v>
-      </c>
-      <c r="T26" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S26" t="s">
+        <v>41</v>
       </c>
       <c r="U26" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="V26" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W26" t="s">
+        <v>53</v>
       </c>
       <c r="X26" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Y26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45736.809212962966</v>
       </c>
@@ -3751,7 +3722,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -3766,61 +3737,61 @@
         <v>45736.810266203705</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
-      </c>
-      <c r="N27">
+        <v>114</v>
+      </c>
+      <c r="K27">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O27">
+      <c r="L27">
         <v>151.08109999999999</v>
       </c>
-      <c r="P27" t="s">
-        <v>33</v>
+      <c r="M27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27">
+        <v>48961116</v>
       </c>
       <c r="Q27" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R27" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27">
-        <v>48961116</v>
-      </c>
-      <c r="T27" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
       </c>
       <c r="U27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V27" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W27" t="s">
+        <v>53</v>
       </c>
       <c r="X27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z27" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="AA27" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="AB27" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45736.954942129632</v>
       </c>
@@ -3831,7 +3802,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -3846,61 +3817,61 @@
         <v>45736.956377314818</v>
       </c>
       <c r="I28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28">
+        <v>-33.788400000000003</v>
+      </c>
+      <c r="L28">
+        <v>151.08109999999999</v>
+      </c>
+      <c r="M28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28">
+        <v>49170406</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>62</v>
+      </c>
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V28" t="s">
+        <v>70</v>
+      </c>
+      <c r="W28" t="s">
+        <v>118</v>
+      </c>
+      <c r="X28" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z28" t="s">
         <v>120</v>
-      </c>
-      <c r="N28">
-        <v>-33.788400000000003</v>
-      </c>
-      <c r="O28">
-        <v>151.08109999999999</v>
-      </c>
-      <c r="P28" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>34</v>
-      </c>
-      <c r="R28" t="s">
-        <v>37</v>
-      </c>
-      <c r="S28">
-        <v>49170406</v>
-      </c>
-      <c r="T28" t="s">
-        <v>65</v>
-      </c>
-      <c r="U28" t="s">
-        <v>44</v>
-      </c>
-      <c r="V28" t="s">
-        <v>44</v>
-      </c>
-      <c r="X28" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>121</v>
       </c>
       <c r="AA28" t="s">
         <v>121</v>
       </c>
       <c r="AB28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45729.047708333332</v>
       </c>
@@ -3911,7 +3882,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E29">
         <v>75</v>
@@ -3926,52 +3897,52 @@
         <v>45736.967928240738</v>
       </c>
       <c r="I29" t="s">
-        <v>126</v>
-      </c>
-      <c r="N29">
+        <v>123</v>
+      </c>
+      <c r="K29">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O29">
+      <c r="L29">
         <v>151.08109999999999</v>
       </c>
-      <c r="P29" t="s">
-        <v>33</v>
+      <c r="M29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29">
+        <v>48496839</v>
       </c>
       <c r="Q29" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R29" t="s">
-        <v>37</v>
-      </c>
-      <c r="S29">
-        <v>48496839</v>
-      </c>
-      <c r="T29" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S29" t="s">
+        <v>41</v>
       </c>
       <c r="U29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V29" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W29" t="s">
+        <v>53</v>
       </c>
       <c r="X29" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y29" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45732.318287037036</v>
       </c>
@@ -3982,7 +3953,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -3997,25 +3968,25 @@
         <v>45739.35019675926</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
-      </c>
-      <c r="N30">
+        <v>125</v>
+      </c>
+      <c r="K30">
         <v>-33.920299999999997</v>
       </c>
-      <c r="O30">
+      <c r="L30">
         <v>151.0735</v>
       </c>
-      <c r="P30" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" t="s">
         <v>34</v>
       </c>
-      <c r="R30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45742.990659722222</v>
       </c>
@@ -4026,7 +3997,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -4041,61 +4012,61 @@
         <v>45742.991805555554</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
-      </c>
-      <c r="N31">
+        <v>127</v>
+      </c>
+      <c r="K31">
         <v>-33.809699999999999</v>
       </c>
-      <c r="O31">
+      <c r="L31">
         <v>151.25030000000001</v>
       </c>
-      <c r="P31" t="s">
-        <v>33</v>
+      <c r="M31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31">
+        <v>49095803</v>
       </c>
       <c r="Q31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R31" t="s">
-        <v>37</v>
-      </c>
-      <c r="S31">
-        <v>49095803</v>
-      </c>
-      <c r="T31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" t="s">
+        <v>70</v>
+      </c>
+      <c r="V31" t="s">
+        <v>70</v>
+      </c>
+      <c r="W31" t="s">
         <v>43</v>
       </c>
-      <c r="U31" t="s">
-        <v>49</v>
-      </c>
-      <c r="V31" t="s">
-        <v>44</v>
-      </c>
       <c r="X31" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Y31" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Z31" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="AA31" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="AB31" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45742.987962962965</v>
       </c>
@@ -4106,7 +4077,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -4121,58 +4092,58 @@
         <v>45742.992118055554</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
-      </c>
-      <c r="N32">
+        <v>130</v>
+      </c>
+      <c r="K32">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O32">
+      <c r="L32">
         <v>151.08109999999999</v>
       </c>
-      <c r="P32" t="s">
-        <v>33</v>
+      <c r="M32" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32">
+        <v>49102575</v>
       </c>
       <c r="Q32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R32" t="s">
-        <v>37</v>
-      </c>
-      <c r="S32">
-        <v>49102575</v>
-      </c>
-      <c r="T32" t="s">
+        <v>41</v>
+      </c>
+      <c r="S32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" t="s">
+        <v>42</v>
+      </c>
+      <c r="V32" t="s">
+        <v>42</v>
+      </c>
+      <c r="W32" t="s">
         <v>43</v>
       </c>
-      <c r="U32" t="s">
-        <v>44</v>
-      </c>
-      <c r="V32" t="s">
-        <v>44</v>
-      </c>
       <c r="X32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="AB32" t="s">
         <v>46</v>
       </c>
-      <c r="AC32" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" ht="409.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:28" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45742.999942129631</v>
       </c>
@@ -4183,7 +4154,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -4198,61 +4169,61 @@
         <v>45743.007696759261</v>
       </c>
       <c r="I33" t="s">
-        <v>135</v>
-      </c>
-      <c r="N33">
+        <v>132</v>
+      </c>
+      <c r="K33">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O33">
+      <c r="L33">
         <v>151.08109999999999</v>
       </c>
-      <c r="P33" t="s">
-        <v>33</v>
+      <c r="M33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33">
+        <v>47793783</v>
       </c>
       <c r="Q33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R33" t="s">
-        <v>37</v>
-      </c>
-      <c r="S33">
-        <v>47793783</v>
-      </c>
-      <c r="T33" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="S33" t="s">
+        <v>41</v>
       </c>
       <c r="U33" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V33" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W33" t="s">
+        <v>53</v>
       </c>
       <c r="X33" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y33" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="AA33" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AB33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45743.06045138889</v>
       </c>
@@ -4263,7 +4234,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -4278,58 +4249,58 @@
         <v>45743.063333333332</v>
       </c>
       <c r="I34" t="s">
-        <v>138</v>
-      </c>
-      <c r="N34">
+        <v>135</v>
+      </c>
+      <c r="K34">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O34">
+      <c r="L34">
         <v>151.08109999999999</v>
       </c>
-      <c r="P34" t="s">
-        <v>33</v>
+      <c r="M34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34">
+        <v>49076876</v>
       </c>
       <c r="Q34" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R34" t="s">
-        <v>37</v>
-      </c>
-      <c r="S34">
-        <v>49076876</v>
-      </c>
-      <c r="T34" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S34" t="s">
+        <v>41</v>
       </c>
       <c r="U34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V34" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W34" t="s">
+        <v>53</v>
       </c>
       <c r="X34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Y34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z34" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="AB34" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>45743.060474537036</v>
       </c>
@@ -4340,7 +4311,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -4355,61 +4326,61 @@
         <v>45743.065972222219</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
-      </c>
-      <c r="N35">
+        <v>137</v>
+      </c>
+      <c r="K35">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O35">
+      <c r="L35">
         <v>151.08109999999999</v>
       </c>
-      <c r="P35" t="s">
-        <v>33</v>
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35">
+        <v>47629894</v>
       </c>
       <c r="Q35" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>37</v>
-      </c>
-      <c r="S35">
-        <v>47629894</v>
-      </c>
-      <c r="T35" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S35" t="s">
+        <v>41</v>
       </c>
       <c r="U35" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="V35" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W35" t="s">
+        <v>43</v>
       </c>
       <c r="X35" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Y35" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="Z35" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="AA35" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="AB35" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" ht="409.5" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>45743.060393518521</v>
       </c>
@@ -4420,7 +4391,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -4435,61 +4406,61 @@
         <v>45743.066342592596</v>
       </c>
       <c r="I36" t="s">
-        <v>143</v>
-      </c>
-      <c r="N36">
+        <v>140</v>
+      </c>
+      <c r="K36">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O36">
+      <c r="L36">
         <v>151.08109999999999</v>
       </c>
-      <c r="P36" t="s">
-        <v>33</v>
+      <c r="M36" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <v>46466673</v>
       </c>
       <c r="Q36" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S36">
-        <v>46466673</v>
-      </c>
-      <c r="T36" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S36" t="s">
+        <v>41</v>
       </c>
       <c r="U36" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="V36" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="W36" t="s">
+        <v>43</v>
       </c>
       <c r="X36" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Y36" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="AB36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>45743.821851851855</v>
       </c>
@@ -4500,7 +4471,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -4515,61 +4486,61 @@
         <v>45743.823240740741</v>
       </c>
       <c r="I37" t="s">
-        <v>146</v>
-      </c>
-      <c r="N37">
+        <v>143</v>
+      </c>
+      <c r="K37">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O37">
+      <c r="L37">
         <v>151.08109999999999</v>
       </c>
-      <c r="P37" t="s">
-        <v>33</v>
+      <c r="M37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37">
+        <v>48887285</v>
       </c>
       <c r="Q37" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R37" t="s">
-        <v>37</v>
-      </c>
-      <c r="S37">
-        <v>48887285</v>
-      </c>
-      <c r="T37" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S37" t="s">
+        <v>41</v>
       </c>
       <c r="U37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V37" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W37" t="s">
+        <v>43</v>
       </c>
       <c r="X37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z37" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="AA37" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="AB37" t="s">
         <v>46</v>
       </c>
-      <c r="AC37" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>45743.821712962963</v>
       </c>
@@ -4580,7 +4551,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -4595,64 +4566,64 @@
         <v>45743.823738425926</v>
       </c>
       <c r="I38" t="s">
+        <v>146</v>
+      </c>
+      <c r="K38">
+        <v>-33.788400000000003</v>
+      </c>
+      <c r="L38">
+        <v>151.08109999999999</v>
+      </c>
+      <c r="M38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38">
+        <v>49178229</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>62</v>
+      </c>
+      <c r="R38" t="s">
+        <v>46</v>
+      </c>
+      <c r="S38" t="s">
+        <v>46</v>
+      </c>
+      <c r="T38" t="s">
+        <v>147</v>
+      </c>
+      <c r="U38" t="s">
+        <v>42</v>
+      </c>
+      <c r="V38" t="s">
+        <v>42</v>
+      </c>
+      <c r="W38" t="s">
+        <v>53</v>
+      </c>
+      <c r="X38" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA38" t="s">
         <v>149</v>
       </c>
-      <c r="N38">
-        <v>-33.788400000000003</v>
-      </c>
-      <c r="O38">
-        <v>151.08109999999999</v>
-      </c>
-      <c r="P38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>34</v>
-      </c>
-      <c r="R38" t="s">
-        <v>37</v>
-      </c>
-      <c r="S38">
-        <v>49178229</v>
-      </c>
-      <c r="T38" t="s">
-        <v>65</v>
-      </c>
-      <c r="U38" t="s">
-        <v>49</v>
-      </c>
-      <c r="V38" t="s">
-        <v>49</v>
-      </c>
-      <c r="W38" t="s">
-        <v>150</v>
-      </c>
-      <c r="X38" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>56</v>
-      </c>
       <c r="AB38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>45743.821967592594</v>
       </c>
@@ -4663,7 +4634,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -4678,61 +4649,61 @@
         <v>45743.827268518522</v>
       </c>
       <c r="I39" t="s">
-        <v>153</v>
-      </c>
-      <c r="N39">
+        <v>150</v>
+      </c>
+      <c r="K39">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O39">
+      <c r="L39">
         <v>151.08109999999999</v>
       </c>
-      <c r="P39" t="s">
-        <v>33</v>
+      <c r="M39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39">
+        <v>48766976</v>
       </c>
       <c r="Q39" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R39" t="s">
-        <v>37</v>
-      </c>
-      <c r="S39">
-        <v>48766976</v>
-      </c>
-      <c r="T39" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S39" t="s">
+        <v>41</v>
       </c>
       <c r="U39" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V39" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W39" t="s">
+        <v>53</v>
       </c>
       <c r="X39" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y39" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Z39" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="AA39" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="AB39" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" ht="409.5" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>45743.822187500002</v>
       </c>
@@ -4743,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -4758,61 +4729,61 @@
         <v>45743.827465277776</v>
       </c>
       <c r="I40" t="s">
-        <v>156</v>
-      </c>
-      <c r="N40">
+        <v>153</v>
+      </c>
+      <c r="K40">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O40">
+      <c r="L40">
         <v>151.08109999999999</v>
       </c>
-      <c r="P40" t="s">
-        <v>33</v>
+      <c r="M40" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" t="s">
+        <v>34</v>
+      </c>
+      <c r="P40">
+        <v>47486643</v>
       </c>
       <c r="Q40" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S40">
-        <v>47486643</v>
-      </c>
-      <c r="T40" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S40" t="s">
+        <v>41</v>
       </c>
       <c r="U40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V40" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W40" t="s">
+        <v>53</v>
       </c>
       <c r="X40" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y40" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="AB40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>45736.891817129632</v>
       </c>
@@ -4823,7 +4794,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>58</v>
@@ -4838,37 +4809,37 @@
         <v>45743.89230324074</v>
       </c>
       <c r="I41" t="s">
-        <v>159</v>
-      </c>
-      <c r="N41">
+        <v>156</v>
+      </c>
+      <c r="K41">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O41">
+      <c r="L41">
         <v>151.08109999999999</v>
       </c>
-      <c r="P41" t="s">
-        <v>33</v>
+      <c r="M41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41">
+        <v>46555657</v>
       </c>
       <c r="Q41" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R41" t="s">
-        <v>37</v>
-      </c>
-      <c r="S41">
-        <v>46555657</v>
-      </c>
-      <c r="T41" t="s">
-        <v>65</v>
-      </c>
-      <c r="U41" t="s">
-        <v>44</v>
-      </c>
-      <c r="V41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+      <c r="S41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>45749.990069444444</v>
       </c>
@@ -4879,7 +4850,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -4894,58 +4865,58 @@
         <v>45749.990995370368</v>
       </c>
       <c r="I42" t="s">
-        <v>160</v>
-      </c>
-      <c r="N42">
+        <v>157</v>
+      </c>
+      <c r="K42">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O42">
+      <c r="L42">
         <v>151.08109999999999</v>
       </c>
-      <c r="P42" t="s">
-        <v>33</v>
+      <c r="M42" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42">
+        <v>48501131</v>
       </c>
       <c r="Q42" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R42" t="s">
-        <v>37</v>
-      </c>
-      <c r="S42">
-        <v>48501131</v>
-      </c>
-      <c r="T42" t="s">
+        <v>41</v>
+      </c>
+      <c r="S42" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" t="s">
+        <v>42</v>
+      </c>
+      <c r="V42" t="s">
+        <v>42</v>
+      </c>
+      <c r="W42" t="s">
         <v>43</v>
       </c>
-      <c r="U42" t="s">
-        <v>44</v>
-      </c>
-      <c r="V42" t="s">
-        <v>44</v>
-      </c>
       <c r="X42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z42" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="AB42" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>45749.990960648145</v>
       </c>
@@ -4956,7 +4927,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -4971,55 +4942,55 @@
         <v>45749.9922337963</v>
       </c>
       <c r="I43" t="s">
-        <v>162</v>
-      </c>
-      <c r="N43">
+        <v>159</v>
+      </c>
+      <c r="K43">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O43">
+      <c r="L43">
         <v>151.08109999999999</v>
       </c>
-      <c r="P43" t="s">
-        <v>33</v>
+      <c r="M43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43">
+        <v>48982105</v>
       </c>
       <c r="Q43" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R43" t="s">
-        <v>37</v>
-      </c>
-      <c r="S43">
-        <v>48982105</v>
-      </c>
-      <c r="T43" t="s">
+        <v>41</v>
+      </c>
+      <c r="S43" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" t="s">
+        <v>52</v>
+      </c>
+      <c r="V43" t="s">
+        <v>52</v>
+      </c>
+      <c r="W43" t="s">
         <v>43</v>
       </c>
-      <c r="U43" t="s">
-        <v>44</v>
-      </c>
-      <c r="V43" t="s">
-        <v>44</v>
-      </c>
       <c r="X43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y43" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB43" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>45749.990173611113</v>
       </c>
@@ -5030,7 +5001,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -5045,61 +5016,61 @@
         <v>45749.997453703705</v>
       </c>
       <c r="I44" t="s">
-        <v>163</v>
-      </c>
-      <c r="N44">
+        <v>160</v>
+      </c>
+      <c r="K44">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O44">
+      <c r="L44">
         <v>151.08109999999999</v>
       </c>
-      <c r="P44" t="s">
-        <v>33</v>
+      <c r="M44" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44">
+        <v>48138150</v>
       </c>
       <c r="Q44" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R44" t="s">
-        <v>37</v>
-      </c>
-      <c r="S44">
-        <v>48138150</v>
-      </c>
-      <c r="T44" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="S44" t="s">
+        <v>41</v>
       </c>
       <c r="U44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V44" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W44" t="s">
+        <v>53</v>
       </c>
       <c r="X44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y44" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Z44" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="AA44" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="AB44" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>45750.057511574072</v>
       </c>
@@ -5110,7 +5081,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -5125,61 +5096,61 @@
         <v>45750.059027777781</v>
       </c>
       <c r="I45" t="s">
-        <v>166</v>
-      </c>
-      <c r="N45">
+        <v>163</v>
+      </c>
+      <c r="K45">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O45">
+      <c r="L45">
         <v>151.08109999999999</v>
       </c>
-      <c r="P45" t="s">
-        <v>33</v>
+      <c r="M45" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45">
+        <v>48975680</v>
       </c>
       <c r="Q45" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R45" t="s">
-        <v>37</v>
-      </c>
-      <c r="S45">
-        <v>48975680</v>
-      </c>
-      <c r="T45" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S45" t="s">
+        <v>41</v>
       </c>
       <c r="U45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V45" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W45" t="s">
+        <v>53</v>
       </c>
       <c r="X45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z45" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="AA45" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="AB45" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45750.057800925926</v>
       </c>
@@ -5190,7 +5161,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -5205,61 +5176,61 @@
         <v>45750.059872685182</v>
       </c>
       <c r="I46" t="s">
-        <v>169</v>
-      </c>
-      <c r="N46">
+        <v>166</v>
+      </c>
+      <c r="K46">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O46">
+      <c r="L46">
         <v>151.08109999999999</v>
       </c>
-      <c r="P46" t="s">
-        <v>33</v>
+      <c r="M46" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46">
+        <v>48510904</v>
       </c>
       <c r="Q46" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R46" t="s">
-        <v>37</v>
-      </c>
-      <c r="S46">
-        <v>48510904</v>
-      </c>
-      <c r="T46" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S46" t="s">
+        <v>41</v>
       </c>
       <c r="U46" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="V46" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W46" t="s">
+        <v>43</v>
       </c>
       <c r="X46" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Y46" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="Z46" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="AA46" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="AB46" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>45750.823761574073</v>
       </c>
@@ -5270,7 +5241,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -5285,61 +5256,61 @@
         <v>45750.825937499998</v>
       </c>
       <c r="I47" t="s">
-        <v>172</v>
-      </c>
-      <c r="N47">
+        <v>169</v>
+      </c>
+      <c r="K47">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O47">
+      <c r="L47">
         <v>151.08109999999999</v>
       </c>
-      <c r="P47" t="s">
-        <v>33</v>
+      <c r="M47" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47">
+        <v>49076868</v>
       </c>
       <c r="Q47" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R47" t="s">
-        <v>37</v>
-      </c>
-      <c r="S47">
-        <v>49076868</v>
-      </c>
-      <c r="T47" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S47" t="s">
+        <v>41</v>
       </c>
       <c r="U47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V47" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W47" t="s">
+        <v>53</v>
       </c>
       <c r="X47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y47" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Z47" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="AA47" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="AB47" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>45757.049722222226</v>
       </c>
@@ -5350,7 +5321,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -5365,61 +5336,61 @@
         <v>45757.051145833335</v>
       </c>
       <c r="I48" t="s">
-        <v>175</v>
-      </c>
-      <c r="N48">
+        <v>172</v>
+      </c>
+      <c r="K48">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O48">
+      <c r="L48">
         <v>151.08109999999999</v>
       </c>
-      <c r="P48" t="s">
-        <v>33</v>
+      <c r="M48" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48">
+        <v>49202898</v>
       </c>
       <c r="Q48" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R48" t="s">
-        <v>37</v>
-      </c>
-      <c r="S48">
-        <v>49202898</v>
-      </c>
-      <c r="T48" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="S48" t="s">
+        <v>41</v>
       </c>
       <c r="U48" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="V48" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="W48" t="s">
+        <v>53</v>
       </c>
       <c r="X48" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Y48" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Z48" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="AA48" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="AB48" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>45750.059432870374</v>
       </c>
@@ -5430,7 +5401,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E49">
         <v>58</v>
@@ -5445,37 +5416,37 @@
         <v>45757.068842592591</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
-      </c>
-      <c r="N49">
+        <v>175</v>
+      </c>
+      <c r="K49">
         <v>-33.788400000000003</v>
       </c>
-      <c r="O49">
+      <c r="L49">
         <v>151.08109999999999</v>
       </c>
-      <c r="P49" t="s">
-        <v>33</v>
+      <c r="M49" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49">
+        <v>49083163</v>
       </c>
       <c r="Q49" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R49" t="s">
-        <v>37</v>
-      </c>
-      <c r="S49">
-        <v>49083163</v>
-      </c>
-      <c r="T49" t="s">
-        <v>65</v>
-      </c>
-      <c r="U49" t="s">
-        <v>49</v>
-      </c>
-      <c r="V49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="S49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>45757.857777777775</v>
       </c>
@@ -5486,7 +5457,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -5501,58 +5472,58 @@
         <v>45757.8596875</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
-      </c>
-      <c r="N50">
+        <v>176</v>
+      </c>
+      <c r="K50">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O50">
+      <c r="L50">
         <v>151.12889999999999</v>
       </c>
-      <c r="P50" t="s">
-        <v>33</v>
+      <c r="M50" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50">
+        <v>49065645</v>
       </c>
       <c r="Q50" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R50" t="s">
-        <v>37</v>
-      </c>
-      <c r="S50">
-        <v>49065645</v>
-      </c>
-      <c r="T50" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S50" t="s">
+        <v>41</v>
       </c>
       <c r="U50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V50" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W50" t="s">
+        <v>53</v>
       </c>
       <c r="X50" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y50" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Z50" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="AB50" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>45757.858229166668</v>
       </c>
@@ -5563,7 +5534,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -5578,61 +5549,61 @@
         <v>45757.861550925925</v>
       </c>
       <c r="I51" t="s">
-        <v>181</v>
-      </c>
-      <c r="N51">
+        <v>178</v>
+      </c>
+      <c r="K51">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O51">
+      <c r="L51">
         <v>151.12889999999999</v>
       </c>
-      <c r="P51" t="s">
-        <v>33</v>
+      <c r="M51" t="s">
+        <v>30</v>
+      </c>
+      <c r="N51" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51">
+        <v>48894907</v>
       </c>
       <c r="Q51" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R51" t="s">
-        <v>37</v>
-      </c>
-      <c r="S51">
-        <v>48894907</v>
-      </c>
-      <c r="T51" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S51" t="s">
+        <v>41</v>
       </c>
       <c r="U51" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V51" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W51" t="s">
+        <v>43</v>
       </c>
       <c r="X51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z51" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="AA51" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="AB51" t="s">
         <v>46</v>
       </c>
-      <c r="AC51" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" ht="409.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:28" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>45757.858287037037</v>
       </c>
@@ -5643,7 +5614,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -5658,58 +5629,58 @@
         <v>45757.86650462963</v>
       </c>
       <c r="I52" t="s">
-        <v>184</v>
-      </c>
-      <c r="N52">
+        <v>181</v>
+      </c>
+      <c r="K52">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O52">
+      <c r="L52">
         <v>151.12889999999999</v>
       </c>
-      <c r="P52" t="s">
-        <v>33</v>
+      <c r="M52" t="s">
+        <v>30</v>
+      </c>
+      <c r="N52" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52">
+        <v>49036947</v>
       </c>
       <c r="Q52" t="s">
-        <v>34</v>
-      </c>
-      <c r="S52">
-        <v>49036947</v>
-      </c>
-      <c r="T52" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="R52" t="s">
+        <v>46</v>
+      </c>
+      <c r="S52" t="s">
+        <v>41</v>
       </c>
       <c r="U52" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V52" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W52" t="s">
+        <v>53</v>
       </c>
       <c r="X52" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y52" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AB52" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC52" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD52" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>45785.03702546296</v>
       </c>
@@ -5720,7 +5691,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -5735,61 +5706,61 @@
         <v>45785.037881944445</v>
       </c>
       <c r="I53" t="s">
-        <v>187</v>
-      </c>
-      <c r="N53">
+        <v>184</v>
+      </c>
+      <c r="K53">
         <v>-33.789400000000001</v>
       </c>
-      <c r="O53">
+      <c r="L53">
         <v>151.0813</v>
       </c>
-      <c r="P53" t="s">
-        <v>33</v>
+      <c r="M53" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" t="s">
+        <v>31</v>
+      </c>
+      <c r="O53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53">
+        <v>47834250</v>
       </c>
       <c r="Q53" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R53" t="s">
-        <v>37</v>
-      </c>
-      <c r="S53">
-        <v>47834250</v>
-      </c>
-      <c r="T53" t="s">
+        <v>41</v>
+      </c>
+      <c r="S53" t="s">
+        <v>41</v>
+      </c>
+      <c r="U53" t="s">
+        <v>42</v>
+      </c>
+      <c r="V53" t="s">
+        <v>42</v>
+      </c>
+      <c r="W53" t="s">
         <v>43</v>
       </c>
-      <c r="U53" t="s">
-        <v>44</v>
-      </c>
-      <c r="V53" t="s">
-        <v>44</v>
-      </c>
       <c r="X53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z53" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="AA53" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="AB53" t="s">
         <v>46</v>
       </c>
-      <c r="AC53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>45785.864444444444</v>
       </c>
@@ -5800,7 +5771,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -5815,61 +5786,61 @@
         <v>45785.8672337963</v>
       </c>
       <c r="I54" t="s">
-        <v>190</v>
-      </c>
-      <c r="N54">
+        <v>187</v>
+      </c>
+      <c r="K54">
         <v>-33.789400000000001</v>
       </c>
-      <c r="O54">
+      <c r="L54">
         <v>151.0813</v>
       </c>
-      <c r="P54" t="s">
-        <v>33</v>
+      <c r="M54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54">
+        <v>47664762</v>
       </c>
       <c r="Q54" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R54" t="s">
-        <v>37</v>
-      </c>
-      <c r="S54">
-        <v>47664762</v>
-      </c>
-      <c r="T54" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S54" t="s">
+        <v>41</v>
       </c>
       <c r="U54" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="V54" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="W54" t="s">
+        <v>53</v>
       </c>
       <c r="X54" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="Y54" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="Z54" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="AA54" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="AB54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>45785.863819444443</v>
       </c>
@@ -5880,7 +5851,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -5895,61 +5866,61 @@
         <v>45785.867766203701</v>
       </c>
       <c r="I55" t="s">
-        <v>193</v>
-      </c>
-      <c r="N55">
+        <v>190</v>
+      </c>
+      <c r="K55">
         <v>-33.789400000000001</v>
       </c>
-      <c r="O55">
+      <c r="L55">
         <v>151.0813</v>
       </c>
-      <c r="P55" t="s">
-        <v>33</v>
+      <c r="M55" t="s">
+        <v>30</v>
+      </c>
+      <c r="N55" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55">
+        <v>49151797</v>
       </c>
       <c r="Q55" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R55" t="s">
-        <v>37</v>
-      </c>
-      <c r="S55">
-        <v>49151797</v>
-      </c>
-      <c r="T55" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S55" t="s">
+        <v>41</v>
       </c>
       <c r="U55" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="V55" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W55" t="s">
+        <v>53</v>
       </c>
       <c r="X55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z55" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="AA55" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="AB55" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>45792.826307870368</v>
       </c>
@@ -5960,7 +5931,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -5975,61 +5946,61 @@
         <v>45792.828136574077</v>
       </c>
       <c r="I56" t="s">
-        <v>196</v>
-      </c>
-      <c r="N56">
+        <v>193</v>
+      </c>
+      <c r="K56">
         <v>-33.789400000000001</v>
       </c>
-      <c r="O56">
+      <c r="L56">
         <v>151.0813</v>
       </c>
-      <c r="P56" t="s">
-        <v>33</v>
+      <c r="M56" t="s">
+        <v>30</v>
+      </c>
+      <c r="N56" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56">
+        <v>47436832</v>
       </c>
       <c r="Q56" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R56" t="s">
-        <v>37</v>
-      </c>
-      <c r="S56">
-        <v>47436832</v>
-      </c>
-      <c r="T56" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S56" t="s">
+        <v>41</v>
       </c>
       <c r="U56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V56" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W56" t="s">
+        <v>53</v>
       </c>
       <c r="X56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z56" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="AA56" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="AB56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>45785.086319444446</v>
       </c>
@@ -6040,7 +6011,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E57">
         <v>8</v>
@@ -6055,25 +6026,25 @@
         <v>45793.766157407408</v>
       </c>
       <c r="I57" t="s">
-        <v>200</v>
-      </c>
-      <c r="N57">
+        <v>197</v>
+      </c>
+      <c r="K57">
         <v>-33.789400000000001</v>
       </c>
-      <c r="O57">
+      <c r="L57">
         <v>151.0813</v>
       </c>
-      <c r="P57" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q57" t="s">
+      <c r="M57" t="s">
+        <v>30</v>
+      </c>
+      <c r="N57" t="s">
+        <v>31</v>
+      </c>
+      <c r="O57" t="s">
         <v>34</v>
       </c>
-      <c r="R57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>45799.103055555555</v>
       </c>
@@ -6084,7 +6055,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -6099,61 +6070,61 @@
         <v>45799.111504629633</v>
       </c>
       <c r="I58" t="s">
-        <v>201</v>
-      </c>
-      <c r="N58">
+        <v>198</v>
+      </c>
+      <c r="K58">
         <v>-33.789400000000001</v>
       </c>
-      <c r="O58">
+      <c r="L58">
         <v>151.0813</v>
       </c>
-      <c r="P58" t="s">
-        <v>33</v>
+      <c r="M58" t="s">
+        <v>30</v>
+      </c>
+      <c r="N58" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58">
+        <v>49252690</v>
       </c>
       <c r="Q58" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S58">
-        <v>49252690</v>
-      </c>
-      <c r="T58" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S58" t="s">
+        <v>41</v>
       </c>
       <c r="U58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V58" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W58" t="s">
+        <v>53</v>
       </c>
       <c r="X58" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y58" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Z58" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="AA58" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="AB58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>45799.018425925926</v>
       </c>
@@ -6164,7 +6135,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E59">
         <v>8</v>
@@ -6179,25 +6150,25 @@
         <v>45806.018587962964</v>
       </c>
       <c r="I59" t="s">
-        <v>204</v>
-      </c>
-      <c r="N59">
+        <v>201</v>
+      </c>
+      <c r="K59">
         <v>-33.789400000000001</v>
       </c>
-      <c r="O59">
+      <c r="L59">
         <v>151.0813</v>
       </c>
-      <c r="P59" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q59" t="s">
+      <c r="M59" t="s">
+        <v>30</v>
+      </c>
+      <c r="N59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" t="s">
         <v>34</v>
       </c>
-      <c r="R59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>45802.902407407404</v>
       </c>
@@ -6208,7 +6179,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E60">
         <v>8</v>
@@ -6223,25 +6194,25 @@
         <v>45809.902604166666</v>
       </c>
       <c r="I60" t="s">
-        <v>206</v>
-      </c>
-      <c r="N60">
+        <v>203</v>
+      </c>
+      <c r="K60">
         <v>-33.950499999999998</v>
       </c>
-      <c r="O60">
+      <c r="L60">
         <v>151.11840000000001</v>
       </c>
-      <c r="P60" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q60" t="s">
+      <c r="M60" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" t="s">
         <v>34</v>
       </c>
-      <c r="R60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>45813.040833333333</v>
       </c>
@@ -6252,7 +6223,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -6267,52 +6238,52 @@
         <v>45813.041516203702</v>
       </c>
       <c r="I61" t="s">
-        <v>207</v>
-      </c>
-      <c r="N61">
+        <v>204</v>
+      </c>
+      <c r="K61">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O61">
+      <c r="L61">
         <v>151.12889999999999</v>
       </c>
-      <c r="P61" t="s">
-        <v>33</v>
+      <c r="M61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61">
+        <v>48956473</v>
       </c>
       <c r="Q61" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R61" t="s">
-        <v>37</v>
-      </c>
-      <c r="S61">
-        <v>48956473</v>
-      </c>
-      <c r="T61" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="S61" t="s">
+        <v>41</v>
       </c>
       <c r="U61" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V61" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="W61" t="s">
+        <v>53</v>
       </c>
       <c r="X61" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y61" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>45858.809988425928</v>
       </c>
@@ -6323,7 +6294,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -6338,61 +6309,61 @@
         <v>45858.811030092591</v>
       </c>
       <c r="I62" t="s">
-        <v>209</v>
-      </c>
-      <c r="N62">
+        <v>206</v>
+      </c>
+      <c r="K62">
         <v>-33.8399</v>
       </c>
-      <c r="O62">
+      <c r="L62">
         <v>151.0583</v>
       </c>
-      <c r="P62" t="s">
-        <v>33</v>
+      <c r="M62" t="s">
+        <v>30</v>
+      </c>
+      <c r="N62" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62">
+        <v>46476687</v>
       </c>
       <c r="Q62" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R62" t="s">
-        <v>37</v>
-      </c>
-      <c r="S62">
-        <v>46476687</v>
+        <v>46</v>
+      </c>
+      <c r="S62" t="s">
+        <v>46</v>
       </c>
       <c r="T62" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="U62" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V62" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W62" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="X62" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="Y62" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="Z62" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="AB62" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="409.5" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>45866.815057870372</v>
       </c>
@@ -6403,7 +6374,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -6418,61 +6389,61 @@
         <v>45866.819606481484</v>
       </c>
       <c r="I63" t="s">
-        <v>212</v>
-      </c>
-      <c r="N63">
+        <v>209</v>
+      </c>
+      <c r="K63">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O63">
+      <c r="L63">
         <v>151.12889999999999</v>
       </c>
-      <c r="P63" t="s">
-        <v>33</v>
+      <c r="M63" t="s">
+        <v>30</v>
+      </c>
+      <c r="N63" t="s">
+        <v>31</v>
+      </c>
+      <c r="O63" t="s">
+        <v>34</v>
+      </c>
+      <c r="P63">
+        <v>60904682</v>
       </c>
       <c r="Q63" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R63" t="s">
-        <v>37</v>
-      </c>
-      <c r="S63">
-        <v>60904682</v>
-      </c>
-      <c r="T63" t="s">
+        <v>46</v>
+      </c>
+      <c r="S63" t="s">
+        <v>41</v>
+      </c>
+      <c r="U63" t="s">
+        <v>52</v>
+      </c>
+      <c r="V63" t="s">
+        <v>52</v>
+      </c>
+      <c r="W63" t="s">
+        <v>53</v>
+      </c>
+      <c r="X63" t="s">
         <v>43</v>
       </c>
-      <c r="U63" t="s">
-        <v>49</v>
-      </c>
-      <c r="V63" t="s">
-        <v>44</v>
-      </c>
-      <c r="X63" t="s">
-        <v>55</v>
-      </c>
       <c r="Y63" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="AB63" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC63" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD63" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>45866.841192129628</v>
       </c>
@@ -6483,7 +6454,7 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E64">
         <v>100</v>
@@ -6498,55 +6469,55 @@
         <v>45867.022986111115</v>
       </c>
       <c r="I64" t="s">
-        <v>215</v>
-      </c>
-      <c r="N64">
+        <v>212</v>
+      </c>
+      <c r="K64">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O64">
+      <c r="L64">
         <v>151.12889999999999</v>
       </c>
-      <c r="P64" t="s">
-        <v>33</v>
+      <c r="M64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N64" t="s">
+        <v>31</v>
+      </c>
+      <c r="O64" t="s">
+        <v>34</v>
+      </c>
+      <c r="P64">
+        <v>46476687</v>
       </c>
       <c r="Q64" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R64" t="s">
-        <v>37</v>
-      </c>
-      <c r="S64">
-        <v>46476687</v>
+        <v>46</v>
+      </c>
+      <c r="S64" t="s">
+        <v>46</v>
       </c>
       <c r="T64" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="U64" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V64" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W64" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="X64" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="Y64" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>45867.124456018515</v>
       </c>
@@ -6557,7 +6528,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E65">
         <v>100</v>
@@ -6572,61 +6543,61 @@
         <v>45867.126226851855</v>
       </c>
       <c r="I65" t="s">
-        <v>217</v>
-      </c>
-      <c r="N65">
+        <v>214</v>
+      </c>
+      <c r="K65">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O65">
+      <c r="L65">
         <v>151.12889999999999</v>
       </c>
-      <c r="P65" t="s">
-        <v>33</v>
+      <c r="M65" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P65">
+        <v>48548111</v>
       </c>
       <c r="Q65" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R65" t="s">
-        <v>37</v>
-      </c>
-      <c r="S65">
-        <v>48548111</v>
-      </c>
-      <c r="T65" t="s">
+        <v>41</v>
+      </c>
+      <c r="S65" t="s">
+        <v>41</v>
+      </c>
+      <c r="U65" t="s">
+        <v>42</v>
+      </c>
+      <c r="V65" t="s">
+        <v>42</v>
+      </c>
+      <c r="W65" t="s">
         <v>43</v>
       </c>
-      <c r="U65" t="s">
-        <v>44</v>
-      </c>
-      <c r="V65" t="s">
-        <v>44</v>
-      </c>
       <c r="X65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z65" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="AA65" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="AB65" t="s">
         <v>46</v>
       </c>
-      <c r="AC65" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>45862.239618055559</v>
       </c>
@@ -6637,7 +6608,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E66">
         <v>8</v>
@@ -6652,25 +6623,25 @@
         <v>45873.896944444445</v>
       </c>
       <c r="I66" t="s">
-        <v>220</v>
-      </c>
-      <c r="N66">
+        <v>217</v>
+      </c>
+      <c r="K66">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O66">
+      <c r="L66">
         <v>151.12889999999999</v>
       </c>
-      <c r="P66" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q66" t="s">
+      <c r="M66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N66" t="s">
+        <v>31</v>
+      </c>
+      <c r="O66" t="s">
         <v>34</v>
       </c>
-      <c r="R66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>45875.165405092594</v>
       </c>
@@ -6681,7 +6652,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -6696,61 +6667,61 @@
         <v>45875.167349537034</v>
       </c>
       <c r="I67" t="s">
-        <v>221</v>
-      </c>
-      <c r="N67">
+        <v>218</v>
+      </c>
+      <c r="K67">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O67">
+      <c r="L67">
         <v>151.12889999999999</v>
       </c>
-      <c r="P67" t="s">
-        <v>33</v>
+      <c r="M67" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P67">
+        <v>48665541</v>
       </c>
       <c r="Q67" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R67" t="s">
-        <v>37</v>
-      </c>
-      <c r="S67">
-        <v>48665541</v>
-      </c>
-      <c r="T67" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S67" t="s">
+        <v>41</v>
       </c>
       <c r="U67" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V67" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W67" t="s">
+        <v>53</v>
       </c>
       <c r="X67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z67" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="AA67" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="AB67" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>45876.781307870369</v>
       </c>
@@ -6761,7 +6732,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -6776,61 +6747,61 @@
         <v>45876.783125000002</v>
       </c>
       <c r="I68" t="s">
-        <v>223</v>
-      </c>
-      <c r="N68">
+        <v>220</v>
+      </c>
+      <c r="K68">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O68">
+      <c r="L68">
         <v>151.12889999999999</v>
       </c>
-      <c r="P68" t="s">
-        <v>33</v>
+      <c r="M68" t="s">
+        <v>30</v>
+      </c>
+      <c r="N68" t="s">
+        <v>31</v>
+      </c>
+      <c r="O68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P68">
+        <v>49004999</v>
       </c>
       <c r="Q68" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R68" t="s">
-        <v>37</v>
-      </c>
-      <c r="S68">
-        <v>49004999</v>
-      </c>
-      <c r="T68" t="s">
+        <v>46</v>
+      </c>
+      <c r="S68" t="s">
+        <v>41</v>
+      </c>
+      <c r="U68" t="s">
+        <v>52</v>
+      </c>
+      <c r="V68" t="s">
+        <v>42</v>
+      </c>
+      <c r="W68" t="s">
+        <v>53</v>
+      </c>
+      <c r="X68" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y68" t="s">
         <v>43</v>
       </c>
-      <c r="U68" t="s">
-        <v>49</v>
-      </c>
-      <c r="V68" t="s">
-        <v>44</v>
-      </c>
-      <c r="X68" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>45</v>
-      </c>
       <c r="Z68" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="AA68" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="AB68" t="s">
         <v>46</v>
       </c>
-      <c r="AC68" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" ht="384" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:28" ht="368" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>45876.780034722222</v>
       </c>
@@ -6841,7 +6812,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -6856,64 +6827,64 @@
         <v>45876.79074074074</v>
       </c>
       <c r="I69" t="s">
+        <v>223</v>
+      </c>
+      <c r="K69">
+        <v>-33.807099999999998</v>
+      </c>
+      <c r="L69">
+        <v>151.12889999999999</v>
+      </c>
+      <c r="M69" t="s">
+        <v>30</v>
+      </c>
+      <c r="N69" t="s">
+        <v>31</v>
+      </c>
+      <c r="O69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69">
+        <v>46476687</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s">
+        <v>46</v>
+      </c>
+      <c r="S69" t="s">
+        <v>46</v>
+      </c>
+      <c r="T69" t="s">
+        <v>224</v>
+      </c>
+      <c r="U69" t="s">
+        <v>42</v>
+      </c>
+      <c r="V69" t="s">
+        <v>42</v>
+      </c>
+      <c r="W69" t="s">
+        <v>53</v>
+      </c>
+      <c r="X69" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA69" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="N69">
-        <v>-33.807099999999998</v>
-      </c>
-      <c r="O69">
-        <v>151.12889999999999</v>
-      </c>
-      <c r="P69" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>34</v>
-      </c>
-      <c r="R69" t="s">
-        <v>37</v>
-      </c>
-      <c r="S69">
-        <v>46476687</v>
-      </c>
-      <c r="T69" t="s">
-        <v>43</v>
-      </c>
-      <c r="U69" t="s">
-        <v>49</v>
-      </c>
-      <c r="V69" t="s">
-        <v>49</v>
-      </c>
-      <c r="W69" t="s">
-        <v>227</v>
-      </c>
-      <c r="X69" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>56</v>
-      </c>
       <c r="AB69" t="s">
         <v>46</v>
       </c>
-      <c r="AC69" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD69" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>45876.830671296295</v>
       </c>
@@ -6924,7 +6895,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -6939,61 +6910,61 @@
         <v>45876.831863425927</v>
       </c>
       <c r="I70" t="s">
-        <v>230</v>
-      </c>
-      <c r="N70">
+        <v>227</v>
+      </c>
+      <c r="K70">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O70">
+      <c r="L70">
         <v>151.12889999999999</v>
       </c>
-      <c r="P70" t="s">
-        <v>33</v>
+      <c r="M70" t="s">
+        <v>30</v>
+      </c>
+      <c r="N70" t="s">
+        <v>31</v>
+      </c>
+      <c r="O70" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70">
+        <v>49004999</v>
       </c>
       <c r="Q70" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R70" t="s">
-        <v>37</v>
-      </c>
-      <c r="S70">
-        <v>49004999</v>
-      </c>
-      <c r="T70" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S70" t="s">
+        <v>41</v>
       </c>
       <c r="U70" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V70" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W70" t="s">
+        <v>53</v>
       </c>
       <c r="X70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z70" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="AA70" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="AB70" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>45876.838923611111</v>
       </c>
@@ -7004,7 +6975,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -7019,61 +6990,61 @@
         <v>45876.840868055559</v>
       </c>
       <c r="I71" t="s">
-        <v>234</v>
-      </c>
-      <c r="N71">
+        <v>231</v>
+      </c>
+      <c r="K71">
         <v>-33.867199999999997</v>
       </c>
-      <c r="O71">
+      <c r="L71">
         <v>151.19970000000001</v>
       </c>
-      <c r="P71" t="s">
-        <v>33</v>
+      <c r="M71" t="s">
+        <v>30</v>
+      </c>
+      <c r="N71" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" t="s">
+        <v>34</v>
+      </c>
+      <c r="P71">
+        <v>60946520</v>
       </c>
       <c r="Q71" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R71" t="s">
-        <v>37</v>
-      </c>
-      <c r="S71">
-        <v>60946520</v>
-      </c>
-      <c r="T71" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S71" t="s">
+        <v>41</v>
       </c>
       <c r="U71" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V71" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W71" t="s">
+        <v>53</v>
       </c>
       <c r="X71" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z71" t="s">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="AA71" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="AB71" t="s">
         <v>46</v>
       </c>
-      <c r="AC71" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>45876.988761574074</v>
       </c>
@@ -7084,7 +7055,7 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -7099,58 +7070,58 @@
         <v>45876.991620370369</v>
       </c>
       <c r="I72" t="s">
-        <v>237</v>
-      </c>
-      <c r="N72">
+        <v>234</v>
+      </c>
+      <c r="K72">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O72">
+      <c r="L72">
         <v>151.12889999999999</v>
       </c>
-      <c r="P72" t="s">
-        <v>33</v>
+      <c r="M72" t="s">
+        <v>30</v>
+      </c>
+      <c r="N72" t="s">
+        <v>31</v>
+      </c>
+      <c r="O72" t="s">
+        <v>34</v>
+      </c>
+      <c r="P72">
+        <v>48815527</v>
       </c>
       <c r="Q72" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R72" t="s">
-        <v>37</v>
-      </c>
-      <c r="S72">
-        <v>48815527</v>
-      </c>
-      <c r="T72" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="S72" t="s">
+        <v>41</v>
       </c>
       <c r="U72" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="V72" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="W72" t="s">
+        <v>53</v>
       </c>
       <c r="X72" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Y72" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Z72" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="AB72" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>45873.040925925925</v>
       </c>
@@ -7161,7 +7132,7 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E73">
         <v>75</v>
@@ -7176,52 +7147,52 @@
         <v>45880.041562500002</v>
       </c>
       <c r="I73" t="s">
-        <v>239</v>
-      </c>
-      <c r="N73">
+        <v>236</v>
+      </c>
+      <c r="K73">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O73">
+      <c r="L73">
         <v>151.12889999999999</v>
       </c>
-      <c r="P73" t="s">
-        <v>33</v>
+      <c r="M73" t="s">
+        <v>30</v>
+      </c>
+      <c r="N73" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73">
+        <v>48756504</v>
       </c>
       <c r="Q73" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R73" t="s">
-        <v>37</v>
-      </c>
-      <c r="S73">
-        <v>48756504</v>
-      </c>
-      <c r="T73" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S73" t="s">
+        <v>41</v>
       </c>
       <c r="U73" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V73" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W73" t="s">
+        <v>53</v>
       </c>
       <c r="X73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y73" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>45881.019861111112</v>
       </c>
@@ -7232,7 +7203,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E74">
         <v>100</v>
@@ -7247,58 +7218,58 @@
         <v>45881.255104166667</v>
       </c>
       <c r="I74" t="s">
-        <v>241</v>
-      </c>
-      <c r="N74">
+        <v>238</v>
+      </c>
+      <c r="K74">
         <v>-33.867199999999997</v>
       </c>
-      <c r="O74">
+      <c r="L74">
         <v>151.19970000000001</v>
       </c>
-      <c r="P74" t="s">
-        <v>33</v>
+      <c r="M74" t="s">
+        <v>30</v>
+      </c>
+      <c r="N74" t="s">
+        <v>31</v>
+      </c>
+      <c r="O74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74">
+        <v>46270132</v>
       </c>
       <c r="Q74" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R74" t="s">
-        <v>37</v>
-      </c>
-      <c r="S74">
-        <v>46270132</v>
-      </c>
-      <c r="T74" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S74" t="s">
+        <v>41</v>
       </c>
       <c r="U74" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="V74" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="W74" t="s">
+        <v>53</v>
       </c>
       <c r="X74" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Y74" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Z74" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="AB74" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>45883.773611111108</v>
       </c>
@@ -7309,7 +7280,7 @@
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E75">
         <v>100</v>
@@ -7324,55 +7295,55 @@
         <v>45883.774328703701</v>
       </c>
       <c r="I75" t="s">
-        <v>243</v>
-      </c>
-      <c r="N75">
+        <v>240</v>
+      </c>
+      <c r="K75">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O75">
+      <c r="L75">
         <v>151.12889999999999</v>
       </c>
-      <c r="P75" t="s">
-        <v>33</v>
+      <c r="M75" t="s">
+        <v>30</v>
+      </c>
+      <c r="N75" t="s">
+        <v>31</v>
+      </c>
+      <c r="O75" t="s">
+        <v>34</v>
+      </c>
+      <c r="P75">
+        <v>49253034</v>
       </c>
       <c r="Q75" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R75" t="s">
-        <v>37</v>
-      </c>
-      <c r="S75">
-        <v>49253034</v>
-      </c>
-      <c r="T75" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="S75" t="s">
+        <v>41</v>
       </c>
       <c r="U75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V75" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W75" t="s">
+        <v>53</v>
       </c>
       <c r="X75" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y75" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB75" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" ht="256" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="256" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>45883.776504629626</v>
       </c>
@@ -7383,7 +7354,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E76">
         <v>100</v>
@@ -7398,61 +7369,61 @@
         <v>45883.779143518521</v>
       </c>
       <c r="I76" t="s">
-        <v>244</v>
-      </c>
-      <c r="N76">
+        <v>241</v>
+      </c>
+      <c r="K76">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O76">
+      <c r="L76">
         <v>151.12889999999999</v>
       </c>
-      <c r="P76" t="s">
-        <v>33</v>
+      <c r="M76" t="s">
+        <v>30</v>
+      </c>
+      <c r="N76" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76">
+        <v>49011022</v>
       </c>
       <c r="Q76" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R76" t="s">
-        <v>37</v>
-      </c>
-      <c r="S76">
-        <v>49011022</v>
-      </c>
-      <c r="T76" t="s">
+        <v>46</v>
+      </c>
+      <c r="S76" t="s">
+        <v>41</v>
+      </c>
+      <c r="U76" t="s">
+        <v>52</v>
+      </c>
+      <c r="V76" t="s">
+        <v>70</v>
+      </c>
+      <c r="W76" t="s">
+        <v>53</v>
+      </c>
+      <c r="X76" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y76" t="s">
         <v>43</v>
       </c>
-      <c r="U76" t="s">
-        <v>49</v>
-      </c>
-      <c r="V76" t="s">
-        <v>44</v>
-      </c>
-      <c r="X76" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>56</v>
+      <c r="Z76" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="AB76" t="s">
         <v>46</v>
       </c>
-      <c r="AC76" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD76" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>45883.868252314816</v>
       </c>
@@ -7463,7 +7434,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -7478,61 +7449,61 @@
         <v>45883.870555555557</v>
       </c>
       <c r="I77" t="s">
-        <v>247</v>
-      </c>
-      <c r="N77">
+        <v>244</v>
+      </c>
+      <c r="K77">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O77">
+      <c r="L77">
         <v>151.12889999999999</v>
       </c>
-      <c r="P77" t="s">
-        <v>33</v>
+      <c r="M77" t="s">
+        <v>30</v>
+      </c>
+      <c r="N77" t="s">
+        <v>31</v>
+      </c>
+      <c r="O77" t="s">
+        <v>34</v>
+      </c>
+      <c r="P77">
+        <v>49215493</v>
       </c>
       <c r="Q77" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R77" t="s">
-        <v>37</v>
-      </c>
-      <c r="S77">
-        <v>49215493</v>
-      </c>
-      <c r="T77" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S77" t="s">
+        <v>41</v>
       </c>
       <c r="U77" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="V77" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W77" t="s">
+        <v>53</v>
       </c>
       <c r="X77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z77" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="AA77" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="AB77" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>45883.86824074074</v>
       </c>
@@ -7543,7 +7514,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -7558,61 +7529,61 @@
         <v>45883.870567129627</v>
       </c>
       <c r="I78" t="s">
-        <v>250</v>
-      </c>
-      <c r="N78">
+        <v>247</v>
+      </c>
+      <c r="K78">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O78">
+      <c r="L78">
         <v>151.12889999999999</v>
       </c>
-      <c r="P78" t="s">
-        <v>33</v>
+      <c r="M78" t="s">
+        <v>30</v>
+      </c>
+      <c r="N78" t="s">
+        <v>31</v>
+      </c>
+      <c r="O78" t="s">
+        <v>34</v>
+      </c>
+      <c r="P78">
+        <v>60884495</v>
       </c>
       <c r="Q78" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R78" t="s">
-        <v>37</v>
-      </c>
-      <c r="S78">
-        <v>60884495</v>
-      </c>
-      <c r="T78" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S78" t="s">
+        <v>41</v>
       </c>
       <c r="U78" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V78" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W78" t="s">
+        <v>43</v>
       </c>
       <c r="X78" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y78" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Z78" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="AA78" t="s">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="AB78" t="s">
         <v>46</v>
       </c>
-      <c r="AC78" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>45883.908726851849</v>
       </c>
@@ -7623,7 +7594,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -7638,61 +7609,61 @@
         <v>45883.911736111113</v>
       </c>
       <c r="I79" t="s">
-        <v>253</v>
-      </c>
-      <c r="N79">
+        <v>250</v>
+      </c>
+      <c r="K79">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O79">
+      <c r="L79">
         <v>151.12889999999999</v>
       </c>
-      <c r="P79" t="s">
-        <v>33</v>
+      <c r="M79" t="s">
+        <v>30</v>
+      </c>
+      <c r="N79" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79" t="s">
+        <v>34</v>
+      </c>
+      <c r="P79">
+        <v>60764953</v>
       </c>
       <c r="Q79" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R79" t="s">
-        <v>37</v>
-      </c>
-      <c r="S79">
-        <v>60764953</v>
-      </c>
-      <c r="T79" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S79" t="s">
+        <v>41</v>
       </c>
       <c r="U79" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="V79" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="W79" t="s">
+        <v>118</v>
       </c>
       <c r="X79" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="Y79" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="Z79" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="AA79" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="AB79" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>45878.412210648145</v>
       </c>
@@ -7703,7 +7674,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E80">
         <v>8</v>
@@ -7718,25 +7689,25 @@
         <v>45885.986377314817</v>
       </c>
       <c r="I80" t="s">
-        <v>257</v>
-      </c>
-      <c r="N80">
+        <v>254</v>
+      </c>
+      <c r="K80">
         <v>-33.867199999999997</v>
       </c>
-      <c r="O80">
+      <c r="L80">
         <v>151.19970000000001</v>
       </c>
-      <c r="P80" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q80" t="s">
+      <c r="M80" t="s">
+        <v>30</v>
+      </c>
+      <c r="N80" t="s">
+        <v>31</v>
+      </c>
+      <c r="O80" t="s">
         <v>34</v>
       </c>
-      <c r="R80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>45882.166655092595</v>
       </c>
@@ -7747,7 +7718,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E81">
         <v>75</v>
@@ -7762,52 +7733,52 @@
         <v>45890.230636574073</v>
       </c>
       <c r="I81" t="s">
-        <v>259</v>
-      </c>
-      <c r="N81">
+        <v>256</v>
+      </c>
+      <c r="K81">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O81">
+      <c r="L81">
         <v>151.12889999999999</v>
       </c>
-      <c r="P81" t="s">
-        <v>33</v>
+      <c r="M81" t="s">
+        <v>30</v>
+      </c>
+      <c r="N81" t="s">
+        <v>31</v>
+      </c>
+      <c r="O81" t="s">
+        <v>34</v>
+      </c>
+      <c r="P81">
+        <v>47357274</v>
       </c>
       <c r="Q81" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R81" t="s">
-        <v>37</v>
-      </c>
-      <c r="S81">
-        <v>47357274</v>
-      </c>
-      <c r="T81" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S81" t="s">
+        <v>41</v>
       </c>
       <c r="U81" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="V81" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W81" t="s">
+        <v>53</v>
       </c>
       <c r="X81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y81" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>45890.861655092594</v>
       </c>
@@ -7818,7 +7789,7 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E82">
         <v>100</v>
@@ -7833,55 +7804,55 @@
         <v>45890.862384259257</v>
       </c>
       <c r="I82" t="s">
-        <v>260</v>
-      </c>
-      <c r="N82">
+        <v>257</v>
+      </c>
+      <c r="K82">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O82">
+      <c r="L82">
         <v>151.12889999999999</v>
       </c>
-      <c r="P82" t="s">
-        <v>33</v>
+      <c r="M82" t="s">
+        <v>30</v>
+      </c>
+      <c r="N82" t="s">
+        <v>31</v>
+      </c>
+      <c r="O82" t="s">
+        <v>34</v>
+      </c>
+      <c r="P82">
+        <v>60775645</v>
       </c>
       <c r="Q82" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R82" t="s">
-        <v>37</v>
-      </c>
-      <c r="S82">
-        <v>60775645</v>
-      </c>
-      <c r="T82" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S82" t="s">
+        <v>41</v>
       </c>
       <c r="U82" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V82" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W82" t="s">
+        <v>43</v>
       </c>
       <c r="X82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y82" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AB82" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>45883.868055555555</v>
       </c>
@@ -7892,7 +7863,7 @@
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E83">
         <v>8</v>
@@ -7907,25 +7878,25 @@
         <v>45890.868391203701</v>
       </c>
       <c r="I83" t="s">
-        <v>261</v>
-      </c>
-      <c r="N83">
+        <v>258</v>
+      </c>
+      <c r="K83">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O83">
+      <c r="L83">
         <v>151.12889999999999</v>
       </c>
-      <c r="P83" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q83" t="s">
+      <c r="M83" t="s">
+        <v>30</v>
+      </c>
+      <c r="N83" t="s">
+        <v>31</v>
+      </c>
+      <c r="O83" t="s">
         <v>34</v>
       </c>
-      <c r="R83" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>45893.276122685187</v>
       </c>
@@ -7936,7 +7907,7 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E84">
         <v>100</v>
@@ -7951,64 +7922,64 @@
         <v>45893.277002314811</v>
       </c>
       <c r="I84" t="s">
+        <v>260</v>
+      </c>
+      <c r="K84">
+        <v>-33.867199999999997</v>
+      </c>
+      <c r="L84">
+        <v>151.19970000000001</v>
+      </c>
+      <c r="M84" t="s">
+        <v>30</v>
+      </c>
+      <c r="N84" t="s">
+        <v>31</v>
+      </c>
+      <c r="O84" t="s">
+        <v>34</v>
+      </c>
+      <c r="P84">
+        <v>12345678</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>62</v>
+      </c>
+      <c r="R84" t="s">
+        <v>46</v>
+      </c>
+      <c r="S84" t="s">
+        <v>46</v>
+      </c>
+      <c r="T84" t="s">
+        <v>261</v>
+      </c>
+      <c r="U84" t="s">
+        <v>70</v>
+      </c>
+      <c r="V84" t="s">
+        <v>70</v>
+      </c>
+      <c r="W84" t="s">
+        <v>119</v>
+      </c>
+      <c r="X84" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA84" t="s">
         <v>263</v>
       </c>
-      <c r="N84">
-        <v>-33.867199999999997</v>
-      </c>
-      <c r="O84">
-        <v>151.19970000000001</v>
-      </c>
-      <c r="P84" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>34</v>
-      </c>
-      <c r="R84" t="s">
-        <v>37</v>
-      </c>
-      <c r="S84">
-        <v>12345678</v>
-      </c>
-      <c r="T84" t="s">
-        <v>65</v>
-      </c>
-      <c r="U84" t="s">
-        <v>49</v>
-      </c>
-      <c r="V84" t="s">
-        <v>49</v>
-      </c>
-      <c r="W84" t="s">
-        <v>264</v>
-      </c>
-      <c r="X84" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>122</v>
-      </c>
       <c r="AB84" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>45896.15353009259</v>
       </c>
@@ -8019,7 +7990,7 @@
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E85">
         <v>100</v>
@@ -8034,61 +8005,61 @@
         <v>45896.156944444447</v>
       </c>
       <c r="I85" t="s">
-        <v>267</v>
-      </c>
-      <c r="N85">
+        <v>264</v>
+      </c>
+      <c r="K85">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O85">
+      <c r="L85">
         <v>151.12889999999999</v>
       </c>
-      <c r="P85" t="s">
-        <v>33</v>
+      <c r="M85" t="s">
+        <v>30</v>
+      </c>
+      <c r="N85" t="s">
+        <v>31</v>
+      </c>
+      <c r="O85" t="s">
+        <v>34</v>
+      </c>
+      <c r="P85">
+        <v>49247883</v>
       </c>
       <c r="Q85" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R85" t="s">
-        <v>37</v>
-      </c>
-      <c r="S85">
-        <v>49247883</v>
-      </c>
-      <c r="T85" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S85" t="s">
+        <v>41</v>
       </c>
       <c r="U85" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V85" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="W85" t="s">
+        <v>43</v>
       </c>
       <c r="X85" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y85" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Z85" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="AA85" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="AB85" t="s">
         <v>46</v>
       </c>
-      <c r="AC85" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>45896.154097222221</v>
       </c>
@@ -8099,7 +8070,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -8114,61 +8085,61 @@
         <v>45896.157430555555</v>
       </c>
       <c r="I86" t="s">
-        <v>270</v>
-      </c>
-      <c r="N86">
+        <v>267</v>
+      </c>
+      <c r="K86">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O86">
+      <c r="L86">
         <v>151.12889999999999</v>
       </c>
-      <c r="P86" t="s">
-        <v>33</v>
+      <c r="M86" t="s">
+        <v>30</v>
+      </c>
+      <c r="N86" t="s">
+        <v>31</v>
+      </c>
+      <c r="O86" t="s">
+        <v>34</v>
+      </c>
+      <c r="P86">
+        <v>49247875</v>
       </c>
       <c r="Q86" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R86" t="s">
-        <v>37</v>
-      </c>
-      <c r="S86">
-        <v>49247875</v>
-      </c>
-      <c r="T86" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S86" t="s">
+        <v>41</v>
       </c>
       <c r="U86" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V86" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W86" t="s">
+        <v>118</v>
       </c>
       <c r="X86" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y86" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="Z86" t="s">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="AA86" t="s">
-        <v>56</v>
+        <v>269</v>
       </c>
       <c r="AB86" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>45896.154722222222</v>
       </c>
@@ -8179,7 +8150,7 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E87">
         <v>100</v>
@@ -8194,61 +8165,61 @@
         <v>45896.158067129632</v>
       </c>
       <c r="I87" t="s">
-        <v>273</v>
-      </c>
-      <c r="N87">
+        <v>270</v>
+      </c>
+      <c r="K87">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O87">
+      <c r="L87">
         <v>151.12889999999999</v>
       </c>
-      <c r="P87" t="s">
-        <v>33</v>
+      <c r="M87" t="s">
+        <v>30</v>
+      </c>
+      <c r="N87" t="s">
+        <v>31</v>
+      </c>
+      <c r="O87" t="s">
+        <v>34</v>
+      </c>
+      <c r="P87">
+        <v>49139819</v>
       </c>
       <c r="Q87" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R87" t="s">
-        <v>37</v>
-      </c>
-      <c r="S87">
-        <v>49139819</v>
-      </c>
-      <c r="T87" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S87" t="s">
+        <v>41</v>
       </c>
       <c r="U87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V87" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W87" t="s">
+        <v>118</v>
       </c>
       <c r="X87" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y87" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="Z87" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="AA87" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="AB87" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD87" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>45897.832129629627</v>
       </c>
@@ -8259,7 +8230,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E88">
         <v>100</v>
@@ -8274,58 +8245,58 @@
         <v>45897.854328703703</v>
       </c>
       <c r="I88" t="s">
-        <v>276</v>
-      </c>
-      <c r="N88">
+        <v>273</v>
+      </c>
+      <c r="K88">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O88">
+      <c r="L88">
         <v>151.12889999999999</v>
       </c>
-      <c r="P88" t="s">
-        <v>33</v>
+      <c r="M88" t="s">
+        <v>30</v>
+      </c>
+      <c r="N88" t="s">
+        <v>31</v>
+      </c>
+      <c r="O88" t="s">
+        <v>34</v>
+      </c>
+      <c r="P88">
+        <v>48170771</v>
       </c>
       <c r="Q88" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R88" t="s">
-        <v>37</v>
-      </c>
-      <c r="S88">
-        <v>48170771</v>
-      </c>
-      <c r="T88" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="S88" t="s">
+        <v>41</v>
       </c>
       <c r="U88" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V88" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W88" t="s">
+        <v>53</v>
       </c>
       <c r="X88" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z88" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>56</v>
+        <v>274</v>
       </c>
       <c r="AB88" t="s">
         <v>46</v>
       </c>
-      <c r="AC88" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>45890.859143518515</v>
       </c>
@@ -8336,7 +8307,7 @@
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -8351,25 +8322,25 @@
         <v>45897.862442129626</v>
       </c>
       <c r="I89" t="s">
-        <v>278</v>
-      </c>
-      <c r="N89">
+        <v>275</v>
+      </c>
+      <c r="K89">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O89">
+      <c r="L89">
         <v>151.12889999999999</v>
       </c>
-      <c r="P89" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>34</v>
-      </c>
-      <c r="R89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="M89" t="s">
+        <v>30</v>
+      </c>
+      <c r="N89" t="s">
+        <v>31</v>
+      </c>
+      <c r="O89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>45891.38009259259</v>
       </c>
@@ -8380,7 +8351,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E90">
         <v>75</v>
@@ -8395,55 +8366,55 @@
         <v>45898.382662037038</v>
       </c>
       <c r="I90" t="s">
-        <v>279</v>
-      </c>
-      <c r="N90">
+        <v>276</v>
+      </c>
+      <c r="K90">
         <v>-33.867199999999997</v>
       </c>
-      <c r="O90">
+      <c r="L90">
         <v>151.19970000000001</v>
       </c>
-      <c r="P90" t="s">
-        <v>33</v>
+      <c r="M90" t="s">
+        <v>30</v>
+      </c>
+      <c r="N90" t="s">
+        <v>31</v>
+      </c>
+      <c r="O90" t="s">
+        <v>34</v>
+      </c>
+      <c r="P90">
+        <v>47958162</v>
       </c>
       <c r="Q90" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R90" t="s">
-        <v>37</v>
-      </c>
-      <c r="S90">
-        <v>47958162</v>
+        <v>46</v>
+      </c>
+      <c r="S90" t="s">
+        <v>46</v>
       </c>
       <c r="T90" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="U90" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V90" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="W90" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="X90" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="Y90" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>45893.277256944442</v>
       </c>
@@ -8454,7 +8425,7 @@
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E91">
         <v>42</v>
@@ -8469,34 +8440,34 @@
         <v>45900.279861111114</v>
       </c>
       <c r="I91" t="s">
-        <v>281</v>
-      </c>
-      <c r="N91">
+        <v>278</v>
+      </c>
+      <c r="K91">
         <v>-33.867199999999997</v>
       </c>
-      <c r="O91">
+      <c r="L91">
         <v>151.19970000000001</v>
       </c>
-      <c r="P91" t="s">
-        <v>33</v>
+      <c r="M91" t="s">
+        <v>30</v>
+      </c>
+      <c r="N91" t="s">
+        <v>31</v>
+      </c>
+      <c r="O91" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91">
+        <v>12345678</v>
       </c>
       <c r="Q91" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R91" t="s">
-        <v>37</v>
-      </c>
-      <c r="S91">
-        <v>12345678</v>
-      </c>
-      <c r="T91" t="s">
-        <v>43</v>
-      </c>
-      <c r="U91" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>45904.859490740739</v>
       </c>
@@ -8507,7 +8478,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -8522,61 +8493,61 @@
         <v>45904.861944444441</v>
       </c>
       <c r="I92" t="s">
-        <v>282</v>
-      </c>
-      <c r="N92">
+        <v>279</v>
+      </c>
+      <c r="K92">
         <v>-33.789400000000001</v>
       </c>
-      <c r="O92">
+      <c r="L92">
         <v>151.0813</v>
       </c>
-      <c r="P92" t="s">
-        <v>33</v>
+      <c r="M92" t="s">
+        <v>30</v>
+      </c>
+      <c r="N92" t="s">
+        <v>31</v>
+      </c>
+      <c r="O92" t="s">
+        <v>34</v>
+      </c>
+      <c r="P92">
+        <v>47502185</v>
       </c>
       <c r="Q92" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R92" t="s">
-        <v>37</v>
-      </c>
-      <c r="S92">
-        <v>47502185</v>
+        <v>46</v>
+      </c>
+      <c r="S92" t="s">
+        <v>46</v>
       </c>
       <c r="T92" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V92" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W92" t="s">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="X92" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y92" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Z92" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>56</v>
+        <v>281</v>
       </c>
       <c r="AB92" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>45945.117592592593</v>
       </c>
@@ -8587,7 +8558,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E93">
         <v>100</v>
@@ -8602,61 +8573,61 @@
         <v>45945.120416666665</v>
       </c>
       <c r="I93" t="s">
-        <v>285</v>
-      </c>
-      <c r="N93">
+        <v>282</v>
+      </c>
+      <c r="K93">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O93">
+      <c r="L93">
         <v>151.12889999999999</v>
       </c>
-      <c r="P93" t="s">
-        <v>33</v>
+      <c r="M93" t="s">
+        <v>30</v>
+      </c>
+      <c r="N93" t="s">
+        <v>31</v>
+      </c>
+      <c r="O93" t="s">
+        <v>34</v>
+      </c>
+      <c r="P93">
+        <v>60946970</v>
       </c>
       <c r="Q93" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R93" t="s">
-        <v>37</v>
-      </c>
-      <c r="S93">
-        <v>60946970</v>
-      </c>
-      <c r="T93" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S93" t="s">
+        <v>41</v>
       </c>
       <c r="U93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V93" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="W93" t="s">
+        <v>43</v>
       </c>
       <c r="X93" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Y93" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="Z93" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="AA93" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="AB93" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>287</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>45945.120486111111</v>
       </c>
@@ -8667,7 +8638,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -8682,62 +8653,68 @@
         <v>45945.122465277775</v>
       </c>
       <c r="I94" t="s">
-        <v>289</v>
-      </c>
-      <c r="N94">
+        <v>286</v>
+      </c>
+      <c r="K94">
         <v>-33.807099999999998</v>
       </c>
-      <c r="O94">
+      <c r="L94">
         <v>151.12889999999999</v>
       </c>
-      <c r="P94" t="s">
-        <v>33</v>
+      <c r="M94" t="s">
+        <v>30</v>
+      </c>
+      <c r="N94" t="s">
+        <v>31</v>
+      </c>
+      <c r="O94" t="s">
+        <v>34</v>
+      </c>
+      <c r="P94">
+        <v>49055275</v>
       </c>
       <c r="Q94" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R94" t="s">
-        <v>37</v>
-      </c>
-      <c r="S94">
-        <v>49055275</v>
-      </c>
-      <c r="T94" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="S94" t="s">
+        <v>41</v>
       </c>
       <c r="U94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V94" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="W94" t="s">
+        <v>53</v>
       </c>
       <c r="X94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z94" t="s">
-        <v>56</v>
+        <v>287</v>
       </c>
       <c r="AA94" t="s">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="AB94" t="s">
         <v>46</v>
       </c>
-      <c r="AC94" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD94" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="X1:X94" xr:uid="{4453E47D-C568-EE4F-A623-6435D780369E}"/>
+  <autoFilter ref="A1:AB94" xr:uid="{4453E47D-C568-EE4F-A623-6435D780369E}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>